--- a/CAIM CB R1 - Adding FX.xlsx
+++ b/CAIM CB R1 - Adding FX.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QRA\Alan\CB Workshop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CB Workshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D274B9-CC7E-44B4-BC2D-B0D5533C8781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF362D8D-3530-4D98-AA8A-FF8D8D1ED9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{7AF5B2D1-1E5F-4C64-B195-ED653168B879}"/>
   </bookViews>
@@ -686,7 +686,7 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -698,7 +698,7 @@
     <xf numFmtId="10" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -716,7 +716,7 @@
     <xf numFmtId="10" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -740,26 +740,26 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -847,22 +847,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -871,7 +871,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -879,13 +879,13 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -22181,7 +22181,7 @@
         <v>5.5468067106803076E-2</v>
       </c>
       <c r="AE114" s="114">
-        <f t="shared" ref="AE114:AE145" si="75">SUMPRODUCT(pfwtsA,V114:AD114)</f>
+        <f t="shared" ref="AE114:AE136" si="75">SUMPRODUCT(pfwtsA,V114:AD114)</f>
         <v>4.2431635280530773E-3</v>
       </c>
       <c r="AF114" s="115">
